--- a/src/main/resources/excel/standard.xlsx
+++ b/src/main/resources/excel/standard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\ss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\project-hope\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF4C4F6-47F8-495B-A1E4-0109C9709DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1E0D1E-3D55-4B03-954A-E768A589554D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -458,30 +458,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.125" style="4" customWidth="1"/>
-    <col min="3" max="6" width="20.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="42.25" style="3" customWidth="1"/>
-    <col min="8" max="10" width="20.125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="41.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.1328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.1328125" style="4" customWidth="1"/>
+    <col min="3" max="6" width="20.1328125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="42.265625" style="3" customWidth="1"/>
+    <col min="8" max="10" width="20.1328125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="41.86328125" style="3" customWidth="1"/>
     <col min="12" max="12" width="23" style="3" customWidth="1"/>
-    <col min="13" max="13" width="30.75" style="3" customWidth="1"/>
-    <col min="14" max="14" width="32.125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="32.375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="27.625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="20.125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="30.73046875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="32.1328125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="32.3984375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="27.59765625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="20.1328125" style="3" customWidth="1"/>
     <col min="18" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="5" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" s="5" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -501,7 +501,7 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
     </row>
-    <row r="2" spans="1:16" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
